--- a/Version_on_pcloud/Data/Data_KS24-628/K24-628_011725/SO2_Peak_fits.xlsx
+++ b/Version_on_pcloud/Data/Data_KS24-628/K24-628_011725/SO2_Peak_fits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,17 +1030,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>49 KD24_c016_a1_FIA.txt</t>
+          <t>47 KD24_c014_a2_FIB.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1151.095858651652</v>
+        <v>1150.998038663664</v>
       </c>
       <c r="C29" t="n">
-        <v>330.8073485687411</v>
+        <v>5.420171894695614</v>
       </c>
       <c r="D29" t="n">
-        <v>182.0705983076015</v>
+        <v>3.967857131855794</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1051,17 +1051,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>51 KD24_c017_a2_FIB.txt</t>
+          <t>49 KD24_c016_a1_FIA.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1150.753488693694</v>
+        <v>1151.095858651652</v>
       </c>
       <c r="C30" t="n">
-        <v>318.9528419534014</v>
+        <v>330.8073485687411</v>
       </c>
       <c r="D30" t="n">
-        <v>203.6811068357488</v>
+        <v>182.0705983076015</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1072,17 +1072,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>52 KD24_c017_a1_FIA.txt</t>
+          <t>51 KD24_c017_a2_FIB.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1150.729033696697</v>
+        <v>1150.753488693694</v>
       </c>
       <c r="C31" t="n">
-        <v>265.4522644860268</v>
+        <v>318.9528419534014</v>
       </c>
       <c r="D31" t="n">
-        <v>161.4071775700602</v>
+        <v>203.6811068357488</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1093,17 +1093,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>53 KD24_c018_a1_FIA.txt</t>
+          <t>52 KD24_c017_a1_FIA.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1150.851308681682</v>
+        <v>1150.729033696697</v>
       </c>
       <c r="C32" t="n">
-        <v>344.9735986426122</v>
+        <v>265.4522644860268</v>
       </c>
       <c r="D32" t="n">
-        <v>200.4237227951538</v>
+        <v>161.4071775700602</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1114,17 +1114,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>54 KD24_c018_a1_FIB.txt</t>
+          <t>53 KD24_c018_a1_FIA.txt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1150.753488693694</v>
+        <v>1150.851308681682</v>
       </c>
       <c r="C33" t="n">
-        <v>247.0367164527222</v>
+        <v>344.9735986426122</v>
       </c>
       <c r="D33" t="n">
-        <v>138.8138890575857</v>
+        <v>200.4237227951538</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1135,17 +1135,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>56 KD24_c020_a1_FIA.txt</t>
+          <t>54 KD24_c018_a1_FIB.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1150.94912866967</v>
+        <v>1150.753488693694</v>
       </c>
       <c r="C34" t="n">
-        <v>314.9273882018781</v>
+        <v>247.0367164527222</v>
       </c>
       <c r="D34" t="n">
-        <v>178.9509300375724</v>
+        <v>138.8138890575857</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1156,17 +1156,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>59 KD24_c021_a2_FIB.txt</t>
+          <t>56 KD24_c020_a1_FIA.txt</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.875763678679</v>
+        <v>1150.94912866967</v>
       </c>
       <c r="C35" t="n">
-        <v>50.27057810326562</v>
+        <v>314.9273882018781</v>
       </c>
       <c r="D35" t="n">
-        <v>26.4111295894553</v>
+        <v>178.9509300375724</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1177,17 +1177,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>61 KD24_c023_a1_FIB.txt</t>
+          <t>59 KD24_c021_a2_FIB.txt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1150.777943690691</v>
+        <v>1150.875763678679</v>
       </c>
       <c r="C36" t="n">
-        <v>123.1259040100476</v>
+        <v>50.27057810326562</v>
       </c>
       <c r="D36" t="n">
-        <v>76.11616755292835</v>
+        <v>26.4111295894553</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1198,19 +1198,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>61 KD24_c023_a1_FIB.txt</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1150.777943690691</v>
+      </c>
+      <c r="C37" t="n">
+        <v>123.1259040100476</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76.11616755292835</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>63 KD24_c023_a1_FIC.txt</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1150.875763678679</v>
+      </c>
+      <c r="C38" t="n">
+        <v>27.71158062725177</v>
+      </c>
+      <c r="D38" t="n">
+        <v>17.50374966530489</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>65 KD24_c024_a1_FIA.txt</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>1150.802398687688</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>56.0716361176097</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>41.2076796803243</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Spline</t>
         </is>
